--- a/Outputs/1. Budget/Output Files/1750000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Output Files/1750000/Output_1_27.xlsx
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2276451.075316476</v>
+        <v>2263877.78197924</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>138.3038958997686</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>382.8908255841847</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -749,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933841</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>59.66385641544528</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>223.1498336210774</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>15.82593128898543</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>96.48367255098523</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,25 +1098,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>118.96213358952</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>54.46079155833912</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>107.3013038024366</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>15.14483238681421</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1302,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>78.3261872982786</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>235.500096002687</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417083</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274086</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262922</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014448</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1587,10 +1587,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0.7644211441592278</v>
       </c>
       <c r="W13" t="n">
-        <v>174.4534201155189</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896931</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274068</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>74.12784487631518</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>140.0424879565125</v>
       </c>
       <c r="Y19" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>17.01291131886079</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2295,19 +2295,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>144.3521919907244</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>79.4742087002211</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.76059872677018</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>149.0799667719512</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>176.8688121773847</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3201,10 +3201,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>84.03859061113688</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>19.44625325864747</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>183.1796758467007</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>114.930904319359</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2247.308246834949</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>454.6247955627683</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4345,37 +4345,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834949</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834949</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y2" t="n">
-        <v>2247.308246834949</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>713.806220357135</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>898.8784838925785</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C5" t="n">
-        <v>898.8784838925785</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>898.8784838925785</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>898.8784838925785</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>487.892579102971</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>69.92877100115783</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>69.92877100115783</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4579,40 +4579,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2544.66214644671</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2544.66214644671</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.546461473041</v>
+        <v>2290.900361084802</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1959.837473741231</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>1607.068818471117</v>
       </c>
       <c r="X5" t="n">
-        <v>1289.01781586839</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="Y5" t="n">
-        <v>898.8784838925785</v>
+        <v>1233.603060210037</v>
       </c>
     </row>
     <row r="6">
@@ -4643,19 +4643,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>713.806220357135</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323009</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323009</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323009</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323009</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323009</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323009</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323009</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,7 +4734,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4743,34 +4743,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600565</v>
+        <v>607.965212903889</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600565</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600565</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="U7" t="n">
-        <v>643.7011644960776</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="V7" t="n">
-        <v>389.0166762901907</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323009</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323009</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323009</v>
+        <v>393.6767897220517</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>991.2778500677816</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C8" t="n">
-        <v>991.2778500677816</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>991.2778500677816</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>991.2778500677816</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>580.2919452781741</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>162.328137176361</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>162.328137176361</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942546</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>2350.788393182921</v>
       </c>
       <c r="W8" t="n">
-        <v>1364.743608328861</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X8" t="n">
-        <v>991.2778500677816</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y8" t="n">
-        <v>991.2778500677816</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2259.828822106974</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>2259.828822106974</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>2259.828822106974</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>2259.828822106974</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>2259.828822106974</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>2180.711461199622</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>2549.002432452406</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>2549.002432452406</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>2549.002432452406</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>2259.828822106974</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>2259.828822106974</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W10" t="n">
-        <v>2259.828822106974</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X10" t="n">
-        <v>2259.828822106974</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>2259.828822106974</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405193</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619125</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643321</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899124</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256433</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277029</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365134</v>
+        <v>563.7235867775535</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216475</v>
+        <v>1332.091733170015</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880508</v>
+        <v>1661.954360834047</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.1070389581963</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581963</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581963</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581963</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.497233179936</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471186</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119726</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247865</v>
+        <v>964.1357418247844</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383447</v>
+        <v>675.0071030383426</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324578</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="W13" t="n">
-        <v>244.1070389581963</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="X13" t="n">
-        <v>244.1070389581963</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="Y13" t="n">
-        <v>244.1070389581963</v>
+        <v>674.2349604684848</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5345,7 +5345,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571612</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636255</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526318</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632138</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>822.148054050878</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684849</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
         <v>359.1696912903951</v>
@@ -5433,55 +5433,55 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688127</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799421</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471251</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974673</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.48306298007</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585753</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557909</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557909</v>
+        <v>1424.039659571725</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557909</v>
+        <v>1424.039659571725</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557909</v>
+        <v>1200.254244361231</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557909</v>
+        <v>1200.254244361231</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557909</v>
+        <v>1200.254244361231</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557909</v>
+        <v>1200.254244361231</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557909</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>972.2646934632137</v>
       </c>
     </row>
     <row r="17">
@@ -5509,40 +5509,40 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823788</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636253</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609669</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>731.31772835508</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181194</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201021</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028589</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636254</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>225.9364417462786</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C22" t="n">
-        <v>225.9364417462786</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D22" t="n">
-        <v>225.9364417462786</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E22" t="n">
-        <v>225.9364417462786</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>225.9364417462786</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>225.9364417462786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247867</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>964.1357418247867</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>964.1357418247867</v>
+        <v>640.271911536393</v>
       </c>
       <c r="W22" t="n">
-        <v>674.718571787826</v>
+        <v>640.271911536393</v>
       </c>
       <c r="X22" t="n">
-        <v>446.7290208898087</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.9364417462786</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
     <row r="23">
@@ -5980,34 +5980,34 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404652</v>
+        <v>324.384017443268</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>324.384017443268</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1453.703544571266</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1253.783534486818</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1029.998119276324</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>740.8694804898822</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V25" t="n">
-        <v>486.1849922839954</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W25" t="n">
-        <v>486.1849922839954</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X25" t="n">
-        <v>486.1849922839954</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y25" t="n">
-        <v>265.3924131404652</v>
+        <v>506.0324822735078</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,28 +6226,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6387,13 +6387,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>954.8146123150548</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>726.8250614170374</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6505,10 +6505,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6651,19 +6651,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>496.665036439558</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028584</v>
@@ -6679,31 +6679,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,28 +6718,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6767,28 +6767,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4073.011257337223</v>
+        <v>4326.074044281175</v>
       </c>
       <c r="C34" t="n">
-        <v>3904.075074409316</v>
+        <v>4157.137861353268</v>
       </c>
       <c r="D34" t="n">
-        <v>3753.95843499698</v>
+        <v>4007.021221940932</v>
       </c>
       <c r="E34" t="n">
-        <v>3606.045341414587</v>
+        <v>3859.108128358539</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916677</v>
+        <v>3712.218180860629</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916677</v>
+        <v>3544.042859180449</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576119</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="S34" t="n">
-        <v>4749.779469576119</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="T34" t="n">
-        <v>4749.779469576119</v>
+        <v>4326.074044281175</v>
       </c>
       <c r="U34" t="n">
-        <v>4749.779469576119</v>
+        <v>4326.074044281175</v>
       </c>
       <c r="V34" t="n">
-        <v>4495.094981370232</v>
+        <v>4326.074044281175</v>
       </c>
       <c r="W34" t="n">
-        <v>4495.094981370232</v>
+        <v>4326.074044281175</v>
       </c>
       <c r="X34" t="n">
-        <v>4475.452301310992</v>
+        <v>4326.074044281175</v>
       </c>
       <c r="Y34" t="n">
-        <v>4254.659722167462</v>
+        <v>4326.074044281175</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,7 +6937,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6979,10 +6979,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>1026.505047571597</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1333.825180851558</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1663.687808515591</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1943.227873734288</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>4452.039182201071</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>4197.354693995184</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>3907.937523958223</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>3679.947973060206</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823778</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,13 +7186,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7368,10 +7368,10 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
         <v>97.21709146028584</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7408,55 +7408,55 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.3840174432676</v>
+        <v>213.3089140050929</v>
       </c>
       <c r="C43" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150548</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8250614170374</v>
+        <v>615.7499579788628</v>
       </c>
       <c r="Y43" t="n">
-        <v>506.0324822735073</v>
+        <v>394.9573788353326</v>
       </c>
     </row>
     <row r="44">
@@ -7642,7 +7642,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7651,10 +7651,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7839,13 +7839,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028829</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028829</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747218</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,10 +8774,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>176.7176547498441</v>
+        <v>29.4753596397847</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445227</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776738</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445211</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776741</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208066</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>182.0340742867947</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928337</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>251.3732221796688</v>
       </c>
       <c r="W13" t="n">
-        <v>112.0695782210721</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037927</v>
+        <v>35.83650752747762</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23718,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.27839330891192</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>85.66716743252468</v>
       </c>
       <c r="Y19" t="n">
-        <v>103.0576765518768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.9009170486753</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>107.7854513331036</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>69.14126431799126</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>65.20375367702262</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.8451328388535</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>48.84084321165207</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>48.8408432116525</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>64.87523775639924</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>206.2634021303897</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.3938331833856</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>52.31591677926885</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>52.77080983974791</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.3938331833856</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26319,43 +26319,43 @@
         <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="F2" t="n">
         <v>527889.2306459071</v>
-      </c>
-      <c r="F2" t="n">
-        <v>527889.230645907</v>
       </c>
       <c r="G2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="H2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="I2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="J2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="K2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="L2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="M2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="O2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="P2" t="n">
         <v>527889.230645907</v>
-      </c>
-      <c r="J2" t="n">
-        <v>527889.2306459068</v>
-      </c>
-      <c r="K2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="L2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.2306459068</v>
-      </c>
-      <c r="N2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="O2" t="n">
-        <v>527889.2306459066</v>
-      </c>
-      <c r="P2" t="n">
-        <v>527889.2306459069</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145447</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.0364768954</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145979.3810050736</v>
+        <v>147709.4414611872</v>
       </c>
       <c r="C4" t="n">
-        <v>145979.3810050735</v>
+        <v>147709.4414611872</v>
       </c>
       <c r="D4" t="n">
-        <v>145979.3810050736</v>
+        <v>147709.4414611872</v>
       </c>
       <c r="E4" t="n">
-        <v>6357.276476069318</v>
+        <v>7749.647172442683</v>
       </c>
       <c r="F4" t="n">
-        <v>6357.276476069318</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="G4" t="n">
-        <v>6357.276476069318</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="H4" t="n">
-        <v>6357.276476069318</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="I4" t="n">
-        <v>6357.276476069319</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="J4" t="n">
-        <v>6357.276476069319</v>
+        <v>7749.647172442677</v>
       </c>
       <c r="K4" t="n">
-        <v>6357.276476069318</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="L4" t="n">
-        <v>6357.276476069318</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="M4" t="n">
-        <v>6357.276476069318</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="N4" t="n">
-        <v>6357.276476069318</v>
+        <v>7749.64717244268</v>
       </c>
       <c r="O4" t="n">
-        <v>6357.276476069317</v>
+        <v>7749.647172442684</v>
       </c>
       <c r="P4" t="n">
-        <v>6357.276476069318</v>
+        <v>7749.647172442681</v>
       </c>
     </row>
     <row r="5">
@@ -26469,43 +26469,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871658</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-264603.1436246366</v>
+        <v>-266333.2040807499</v>
       </c>
       <c r="C6" t="n">
-        <v>325364.7355899084</v>
+        <v>323634.6751337948</v>
       </c>
       <c r="D6" t="n">
-        <v>325364.7355899086</v>
+        <v>323634.6751337947</v>
       </c>
       <c r="E6" t="n">
-        <v>-95615.40825577546</v>
+        <v>-97007.77895214781</v>
       </c>
       <c r="F6" t="n">
-        <v>429544.628221121</v>
+        <v>428152.2575247478</v>
       </c>
       <c r="G6" t="n">
-        <v>429544.6282211212</v>
+        <v>428152.2575247476</v>
       </c>
       <c r="H6" t="n">
-        <v>429544.6282211209</v>
+        <v>428152.2575247477</v>
       </c>
       <c r="I6" t="n">
-        <v>429544.6282211215</v>
+        <v>428152.2575247478</v>
       </c>
       <c r="J6" t="n">
-        <v>253121.4090285279</v>
+        <v>251729.0383321547</v>
       </c>
       <c r="K6" t="n">
-        <v>429544.628221121</v>
+        <v>428152.2575247482</v>
       </c>
       <c r="L6" t="n">
-        <v>429544.628221121</v>
+        <v>428152.2575247478</v>
       </c>
       <c r="M6" t="n">
-        <v>294743.6129872836</v>
+        <v>293351.2422909105</v>
       </c>
       <c r="N6" t="n">
-        <v>429544.628221121</v>
+        <v>428152.2575247476</v>
       </c>
       <c r="O6" t="n">
-        <v>429544.6282211207</v>
+        <v>428152.2575247478</v>
       </c>
       <c r="P6" t="n">
-        <v>429544.6282211209</v>
+        <v>428152.2575247477</v>
       </c>
     </row>
   </sheetData>
@@ -26737,46 +26737,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054540996</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541005</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541008</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>830.3824054541005</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541006</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="C4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="C4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545555</v>
-      </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370129</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>226.9689958712389</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>23.98522015752673</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634987</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>63.37316471551358</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>136.1053849558758</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>77.93204025798627</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27791,10 +27791,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,25 +27818,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>27.70305839063784</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>231.8210826836386</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>44.63001244242467</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>201.3034879708436</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28022,19 +28022,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>88.9836149607723</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>16.637547321141</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31047,43 +31047,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,7 +31284,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31293,34 +31293,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,40 +31357,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31399,7 +31399,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443614</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444942</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961202</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041484</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304435</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565515</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927181</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540881</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946989</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647493</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446476</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104643</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354101</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386724</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127059</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215732</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.416877562298</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358982</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724842</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813458</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855523</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710954</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677462</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361484</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081163</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990344</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196122</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171317</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.652223606563</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469071</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.387743223569</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337664</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336899</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.39802836989224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351808</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,43 +32548,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34941,22 +34941,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535713</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415077</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303326</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109067</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081114</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951467</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.606025510912</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502045</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349793</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490654</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.575438587939</v>
       </c>
       <c r="L12" t="n">
-        <v>425.9753597058686</v>
+        <v>278.7330645958087</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004658</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980125</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178374</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315244</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507393</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556545</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789723</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118006</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187466</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>415.040675600518</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504665</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980132</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091987</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556559</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.702428529916</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504665</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091989</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>389.1274892183194</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Output Files/1750000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Output Files/1750000/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2263877.78197924</v>
+        <v>2256860.767087528</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>382.8908255841847</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>105.0839683962665</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>59.66385641544528</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>82.59957183215651</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>96.48367255098523</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>38.85099796338665</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>118.96213358952</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>15.14483238681421</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>186.2507170030314</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>235.500096002687</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417083</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274086</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262922</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014448</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.421048022935</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>77.09075258260611</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.7644211441592278</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>74.12784487631518</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.1376433238318</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>109.9093185292912</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113185</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2058,16 +2058,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>140.0424879565125</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>26.9744467395492</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>144.3521919907244</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>79.4742087002211</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>161.1706059301403</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>149.0799667719512</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>155.8385935972308</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>84.03859061113688</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3243,16 +3243,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>25.82923535834151</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>183.1796758467007</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>114.930904319359</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>26.97444673954876</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1567.641263708175</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C2" t="n">
-        <v>1198.678746767763</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>840.4130481610125</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>454.6247955627683</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="X2" t="n">
-        <v>2344.380435748108</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="Y2" t="n">
-        <v>1954.241103772296</v>
+        <v>2535.974978926224</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4427,25 +4427,25 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>114.2095034521274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.603060210037</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>966.3266056533573</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>555.3407008637498</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>137.3768927619367</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2544.66214644671</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2544.66214644671</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2290.900361084802</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1959.837473741231</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1607.068818471117</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1233.603060210037</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1233.603060210037</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,49 +4646,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>393.6767897220517</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>393.6767897220517</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>393.6767897220517</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="F7" t="n">
-        <v>393.6767897220517</v>
+        <v>262.1862143682812</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>93.1864141066136</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>93.1864141066136</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>93.1864141066136</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>607.965212903889</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.8148076117928</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2681.851280526491</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2681.851280526491</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V8" t="n">
-        <v>2350.788393182921</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W8" t="n">
-        <v>1998.019737912806</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X8" t="n">
-        <v>1624.553979651726</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y8" t="n">
-        <v>1234.414647675915</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>490.2500993552354</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.3213845506</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610188</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003438</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405193</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619125</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643321</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899124</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851613</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614722</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256433</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277029</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775535</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170015</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834047</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.2349604684848</v>
+        <v>972.2646934632176</v>
       </c>
       <c r="C13" t="n">
-        <v>674.2349604684848</v>
+        <v>972.2646934632176</v>
       </c>
       <c r="D13" t="n">
-        <v>674.2349604684848</v>
+        <v>822.1480540508818</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>674.2349604684887</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G13" t="n">
         <v>359.1696912903951</v>
@@ -5196,55 +5196,55 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.497233179936</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471186</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119726</v>
+        <v>1421.046823504765</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035279</v>
+        <v>1421.046823504765</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247844</v>
+        <v>1421.046823504765</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383426</v>
+        <v>1421.046823504765</v>
       </c>
       <c r="V13" t="n">
-        <v>674.2349604684848</v>
+        <v>1421.046823504765</v>
       </c>
       <c r="W13" t="n">
-        <v>674.2349604684848</v>
+        <v>1421.046823504765</v>
       </c>
       <c r="X13" t="n">
-        <v>674.2349604684848</v>
+        <v>1193.057272606748</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.2349604684848</v>
+        <v>972.2646934632176</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>972.2646934632137</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1424.039659571725</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1424.039659571725</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1200.254244361231</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>1200.254244361231</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V16" t="n">
-        <v>1200.254244361231</v>
+        <v>1020.446367141518</v>
       </c>
       <c r="W16" t="n">
-        <v>1200.254244361231</v>
+        <v>731.0291971045574</v>
       </c>
       <c r="X16" t="n">
-        <v>972.2646934632137</v>
+        <v>503.0396462065401</v>
       </c>
       <c r="Y16" t="n">
-        <v>972.2646934632137</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="17">
@@ -5494,40 +5494,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805478</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5539,7 +5539,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5548,13 +5548,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,19 +5591,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
         <v>2051.878056918008</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324574</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>420.3226148324574</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5767,19 +5767,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1471.669354659368</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V22" t="n">
-        <v>640.271911536393</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W22" t="n">
-        <v>640.271911536393</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X22" t="n">
-        <v>412.2823606383756</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>412.2823606383756</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5977,13 +5977,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5992,25 +5992,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6074,16 +6074,16 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341676</v>
+        <v>709.4934589365137</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>324.384017443268</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C25" t="n">
-        <v>324.384017443268</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6150,10 +6150,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6183,16 +6183,16 @@
         <v>1498.916270557903</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352016</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W25" t="n">
-        <v>954.8146123150552</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X25" t="n">
-        <v>726.8250614170379</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.0324822735078</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6247,31 +6247,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>233.7852434110083</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471194</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1348.33044553573</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1124.545030325236</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>835.416391538794</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6478,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6694,25 +6694,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6724,7 +6724,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6770,31 +6770,31 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4326.074044281175</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>4157.137861353268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>4007.021221940932</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3859.108128358539</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3712.218180860629</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3544.042859180449</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.859459491669</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4326.074044281175</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>4326.074044281175</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V34" t="n">
-        <v>4326.074044281175</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W34" t="n">
-        <v>4326.074044281175</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X34" t="n">
-        <v>4326.074044281175</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>4326.074044281175</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6919,16 +6919,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,28 +6937,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7004,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3459.155393916676</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916676</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916676</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916676</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916676</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916676</v>
+        <v>273.72523663794</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>123.3072281858833</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>4637.069157803799</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U37" t="n">
-        <v>4452.039182201071</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V37" t="n">
-        <v>4197.354693995184</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W37" t="n">
-        <v>3907.937523958223</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X37" t="n">
-        <v>3679.947973060206</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="Y37" t="n">
-        <v>3459.155393916676</v>
+        <v>441.9005583181194</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823778</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,28 +7350,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
         <v>97.21709146028584</v>
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
@@ -7420,43 +7420,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>213.3089140050929</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>1387.841167119728</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V43" t="n">
-        <v>1133.156678913841</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W43" t="n">
-        <v>843.7395088768801</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X43" t="n">
-        <v>615.7499579788628</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>394.9573788353326</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7636,16 +7636,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7660,19 +7660,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1471.669354659368</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>29.4753596397847</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445227</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9251,10 +9251,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165111</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,16 +9485,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>52.49733361305221</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,25 +9722,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>176.7176547498446</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208066</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928337</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>32.87359982118667</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>251.3732221796688</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.83650752747762</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23712,16 +23712,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>108.6753348228036</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>85.66716743252468</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>82.98990566424357</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>107.7854513331036</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>69.14126431799126</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24423,7 +24423,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>90.96703739368775</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,19 +24651,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>48.84084321165207</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>96.29904972659716</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>64.87523775639924</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>84.59001010593045</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>103.0576765518767</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>52.31591677926885</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>82.98990566424405</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>847841.4164015061</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="7">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="F2" t="n">
         <v>527889.2306459071</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="J2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="K2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="L2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="M2" t="n">
         <v>527889.2306459071</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.2306459069</v>
       </c>
       <c r="N2" t="n">
         <v>527889.2306459069</v>
@@ -26355,7 +26355,7 @@
         <v>527889.2306459071</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768954</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>147709.4414611872</v>
       </c>
       <c r="E4" t="n">
+        <v>7749.647172442628</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7749.647172442628</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7749.647172442641</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7749.647172442592</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7749.647172442676</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7749.64717244268</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7749.64717244268</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7749.647172442677</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7749.647172442677</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7749.647172442677</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7749.647172442681</v>
+      </c>
+      <c r="P4" t="n">
         <v>7749.647172442683</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7749.647172442681</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7749.647172442681</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7749.647172442681</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7749.647172442681</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7749.647172442677</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7749.647172442681</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7749.647172442681</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7749.647172442681</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7749.64717244268</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7749.647172442684</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7749.647172442681</v>
       </c>
     </row>
     <row r="5">
@@ -26478,37 +26478,37 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871658</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266333.2040807499</v>
+        <v>-266333.2040807501</v>
       </c>
       <c r="C6" t="n">
-        <v>323634.6751337948</v>
+        <v>323634.6751337947</v>
       </c>
       <c r="D6" t="n">
-        <v>323634.6751337947</v>
+        <v>323634.6751337944</v>
       </c>
       <c r="E6" t="n">
-        <v>-97007.77895214781</v>
+        <v>-97982.37021186993</v>
       </c>
       <c r="F6" t="n">
-        <v>428152.2575247478</v>
+        <v>427177.6662650262</v>
       </c>
       <c r="G6" t="n">
-        <v>428152.2575247476</v>
+        <v>427177.6662650262</v>
       </c>
       <c r="H6" t="n">
-        <v>428152.2575247477</v>
+        <v>427177.6662650259</v>
       </c>
       <c r="I6" t="n">
-        <v>428152.2575247478</v>
+        <v>427177.666265026</v>
       </c>
       <c r="J6" t="n">
-        <v>251729.0383321547</v>
+        <v>250754.447072433</v>
       </c>
       <c r="K6" t="n">
-        <v>428152.2575247482</v>
+        <v>427177.6662650261</v>
       </c>
       <c r="L6" t="n">
-        <v>428152.2575247478</v>
+        <v>427177.666265026</v>
       </c>
       <c r="M6" t="n">
-        <v>293351.2422909105</v>
+        <v>292376.6510311889</v>
       </c>
       <c r="N6" t="n">
-        <v>428152.2575247476</v>
+        <v>427177.6662650259</v>
       </c>
       <c r="O6" t="n">
-        <v>428152.2575247478</v>
+        <v>427177.6662650263</v>
       </c>
       <c r="P6" t="n">
-        <v>428152.2575247477</v>
+        <v>427177.6662650259</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054540996</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26807,7 +26807,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370129</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.98522015752673</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>69.33174441270504</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>96.50703242634987</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>241.3232009322006</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>77.93204025798627</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>6.348961225150347</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>27.70305839063784</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>201.3034879708436</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>64.97345050525789</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168084</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>16.637547321141</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.932676241267473e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443614</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444942</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961202</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041484</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304435</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565515</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927181</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540881</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946989</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647493</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446476</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104643</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354101</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386724</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127059</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215732</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.416877562298</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358982</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724842</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813458</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855523</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710954</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677462</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361484</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081163</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990344</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196122</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171317</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263749</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.652223606563</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469071</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.387743223569</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337664</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336899</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.39802836989224</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351808</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,31 +32165,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32721,13 +32721,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647497</v>
@@ -32742,7 +32742,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32797,7 +32797,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813463</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
         <v>45.03122946298631</v>
@@ -32870,10 +32870,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
@@ -32882,7 +32882,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32894,13 +32894,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
         <v>34.18755300444946</v>
@@ -32958,13 +32958,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647497</v>
@@ -32979,7 +32979,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33034,7 +33034,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813463</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
         <v>45.03122946298631</v>
@@ -33107,10 +33107,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
         <v>234.725964217132</v>
@@ -33119,7 +33119,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33131,13 +33131,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415077</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303326</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109067</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081114</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951467</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.606025510912</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502045</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349793</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490654</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.575438587939</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958087</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004658</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980125</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178374</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315244</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507393</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556545</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789723</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118006</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187466</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541604</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36369,19 +36369,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>425.975359705869</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,7 +36524,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056037</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36606,19 +36606,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>137.9476282330529</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005179</v>
@@ -36685,16 +36685,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36761,7 +36761,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056037</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Output Files/1750000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Output Files/1750000/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2256860.767087528</v>
+        <v>2261800.02993656</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>35.18155893056274</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>105.0839683962665</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -873,7 +873,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>82.59957183215651</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>96.3616331761031</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,13 +1071,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>59.66385641544528</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>38.85099796338665</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>9.620609031260321</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>186.2507170030314</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.421048022935</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.09075258260611</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>173.9752153343624</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>144.0544470549666</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238318</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>109.9093185292912</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113185</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>26.9744467395492</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2335,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111316</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>161.1706059301403</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>155.8385935972308</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>3.0094263875339</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>25.82923535834151</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>127.5471874873689</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>109.7395205132413</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.97444673954876</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2149.375138862102</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2535.974978926224</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2535.974978926224</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2535.974978926224</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.974978926224</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2535.974978926224</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2535.974978926224</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2535.974978926224</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4391,43 +4391,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>108.9687959810045</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2079.343073798764</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1710.380556858352</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1352.114858251602</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>966.3266056533573</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>555.3407008637498</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>137.3768927619367</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4609,10 +4609,10 @@
         <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>2465.942913862886</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,31 +4646,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4704,25 +4704,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661916</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>409.0761618661916</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>262.1862143682812</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>93.1864141066136</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H7" t="n">
-        <v>93.1864141066136</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>93.1864141066136</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>443.7744035713887</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="C8" t="n">
-        <v>74.81188663097703</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>1027.824306174799</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>642.0360535765544</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>231.0501487869469</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>217.1267447255378</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2277.810876486087</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>1946.747989142516</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>1593.979333872402</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>1220.513575611322</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y8" t="n">
-        <v>830.3742436355105</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,19 +5117,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>972.2646934632176</v>
+        <v>692.753134944335</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632176</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508818</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684887</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1421.046823504765</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1421.046823504765</v>
+        <v>1323.183729816122</v>
       </c>
       <c r="T13" t="n">
-        <v>1421.046823504765</v>
+        <v>1323.183729816122</v>
       </c>
       <c r="U13" t="n">
-        <v>1421.046823504765</v>
+        <v>1323.183729816122</v>
       </c>
       <c r="V13" t="n">
-        <v>1421.046823504765</v>
+        <v>1323.183729816122</v>
       </c>
       <c r="W13" t="n">
-        <v>1421.046823504765</v>
+        <v>1323.183729816122</v>
       </c>
       <c r="X13" t="n">
-        <v>1193.057272606748</v>
+        <v>1095.194178918105</v>
       </c>
       <c r="Y13" t="n">
-        <v>972.2646934632176</v>
+        <v>874.4015997745747</v>
       </c>
     </row>
     <row r="14">
@@ -5257,16 +5257,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,49 +5275,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>392.0201325405893</v>
+        <v>841.7907383782456</v>
       </c>
       <c r="C16" t="n">
-        <v>392.0201325405893</v>
+        <v>672.8545554503387</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.446367141518</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>731.0291971045574</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X16" t="n">
-        <v>503.0396462065401</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="Y16" t="n">
-        <v>392.0201325405893</v>
+        <v>1023.439203208485</v>
       </c>
     </row>
     <row r="17">
@@ -5494,40 +5494,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805478</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5539,7 +5539,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5548,13 +5548,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,16 +5591,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
         <v>1302.911127126629</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,28 +5737,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5767,19 +5767,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>339.7502131046251</v>
       </c>
       <c r="L21" t="n">
-        <v>901.6749225845922</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977054</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N21" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1471.669354659368</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1271.749344574921</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1271.749344574921</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905256</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5977,49 +5977,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805453</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>709.4934589365137</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1016.813592216475</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1336.117678709276</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1046.700508672316</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>818.7109577742983</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6223,43 +6223,43 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>233.7852434110083</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1341.503549752619</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1341.503549752619</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1113.513998854602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706323</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6724,7 +6724,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6937,10 +6937,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6949,16 +6949,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7004,13 +7004,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7019,19 +7019,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>441.9005583181194</v>
+        <v>545.1765965867977</v>
       </c>
       <c r="C37" t="n">
-        <v>441.9005583181194</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>441.9005583181194</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>441.9005583181194</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>441.9005583181194</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>273.72523663794</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>123.3072281858833</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>731.31772835508</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>441.9005583181194</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X37" t="n">
-        <v>441.9005583181194</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y37" t="n">
-        <v>441.9005583181194</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="38">
@@ -7162,49 +7162,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,25 +7256,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>678.2225136306376</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>1080.663557604408</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>859.8709784608774</v>
       </c>
     </row>
     <row r="41">
@@ -7390,19 +7390,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7411,10 +7411,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324571</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>130.9054447954965</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,19 +7660,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1471.669354659368</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1271.749344574921</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1271.749344574921</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1271.749344574921</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165111</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>52.49733361305235</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>52.49733361305221</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>176.7176547498446</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>96.0374492781462</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>32.87359982118667</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>23.94559464924086</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>4.561025963245754</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>108.6753348228036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>64.3050033817197</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>82.98990566424357</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24414,16 +24414,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>90.96703739368775</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>96.29904972659716</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>164.2373947110939</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>84.59001010593045</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>98.16246790166828</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>108.8451328388535</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>82.98990566424405</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015058</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.230645907</v>
       </c>
       <c r="G2" t="n">
         <v>527889.2306459071</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="I2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="K2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="L2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="M2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="N2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="O2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="P2" t="n">
         <v>527889.2306459071</v>
-      </c>
-      <c r="P2" t="n">
-        <v>527889.2306459069</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>147709.4414611872</v>
       </c>
       <c r="E4" t="n">
-        <v>7749.647172442628</v>
+        <v>7749.64717244268</v>
       </c>
       <c r="F4" t="n">
-        <v>7749.647172442628</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="G4" t="n">
-        <v>7749.647172442641</v>
+        <v>7749.647172442679</v>
       </c>
       <c r="H4" t="n">
-        <v>7749.647172442592</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="I4" t="n">
-        <v>7749.647172442676</v>
+        <v>7749.647172442756</v>
       </c>
       <c r="J4" t="n">
-        <v>7749.64717244268</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="K4" t="n">
-        <v>7749.64717244268</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="L4" t="n">
-        <v>7749.647172442677</v>
+        <v>7749.647172442683</v>
       </c>
       <c r="M4" t="n">
-        <v>7749.647172442677</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="N4" t="n">
-        <v>7749.647172442677</v>
+        <v>7749.647172442682</v>
       </c>
       <c r="O4" t="n">
+        <v>7749.647172442682</v>
+      </c>
+      <c r="P4" t="n">
         <v>7749.647172442681</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7749.647172442683</v>
       </c>
     </row>
     <row r="5">
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26487,31 +26487,31 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266333.2040807501</v>
+        <v>-266333.20408075</v>
       </c>
       <c r="C6" t="n">
-        <v>323634.6751337947</v>
+        <v>323634.6751337949</v>
       </c>
       <c r="D6" t="n">
         <v>323634.6751337944</v>
       </c>
       <c r="E6" t="n">
-        <v>-97982.37021186993</v>
+        <v>-97105.23807812073</v>
       </c>
       <c r="F6" t="n">
-        <v>427177.6662650262</v>
+        <v>428054.7983987755</v>
       </c>
       <c r="G6" t="n">
-        <v>427177.6662650262</v>
+        <v>428054.7983987756</v>
       </c>
       <c r="H6" t="n">
-        <v>427177.6662650259</v>
+        <v>428054.7983987753</v>
       </c>
       <c r="I6" t="n">
-        <v>427177.666265026</v>
+        <v>428054.7983987753</v>
       </c>
       <c r="J6" t="n">
-        <v>250754.447072433</v>
+        <v>251631.5792061823</v>
       </c>
       <c r="K6" t="n">
-        <v>427177.6662650261</v>
+        <v>428054.7983987754</v>
       </c>
       <c r="L6" t="n">
-        <v>427177.666265026</v>
+        <v>428054.7983987755</v>
       </c>
       <c r="M6" t="n">
-        <v>292376.6510311889</v>
+        <v>293253.7831649383</v>
       </c>
       <c r="N6" t="n">
-        <v>427177.6662650259</v>
+        <v>428054.7983987754</v>
       </c>
       <c r="O6" t="n">
-        <v>427177.6662650263</v>
+        <v>428054.7983987754</v>
       </c>
       <c r="P6" t="n">
-        <v>427177.6662650259</v>
+        <v>428054.7983987756</v>
       </c>
     </row>
   </sheetData>
@@ -26746,34 +26746,34 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26807,7 +26807,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>330.0913328404448</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>69.33174441270504</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>125.6900249618416</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>241.3232009322006</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>273.3694675023659</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634987</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>6.348961225150347</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>314.3021637330968</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>64.97345050525789</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,22 +28013,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>96.44405126592675</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28064,13 +28064,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>96.01048066168084</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.648459146963432e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35032,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>756.532252314524</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>203.0727722009916</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004662</v>
@@ -36214,13 +36214,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>334.8610358541604</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>425.975359705869</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.9476282330529</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
